--- a/Riesgo crediticio/23.- CDS.xlsx
+++ b/Riesgo crediticio/23.- CDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo crediticio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5844144-96F1-3C40-9047-7F9C79F3FFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCDB55-1A3F-974B-8F0D-44F4A137ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="760" windowWidth="28280" windowHeight="16880" activeTab="1" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
   </bookViews>
   <sheets>
     <sheet name="Teoría" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Liverpool" sheetId="2" r:id="rId3"/>
     <sheet name="GMexico" sheetId="3" r:id="rId4"/>
     <sheet name="Banorte" sheetId="4" r:id="rId5"/>
-    <sheet name="HPE" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">YTW!$C$9</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>CDS: Credit Default Swaps.</t>
   </si>
@@ -185,21 +184,6 @@
     <t>B) Posteriormente a calcular tu prima spread, responde, ¿Qué pasa con la prima spread si tu tasa de recuperacion tiende a 1 y tu LGD a 0? ¿Por qué?</t>
   </si>
   <si>
-    <t>Responde:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿cuál es el Loss Given Default implícito en esa prima de CDS que es 5 basis menos a la prima justa?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si resulta que ese CDS se negocia a prima 5 basis menor a la que tu calculaste, asumiendo la probabilidad de default calculada en el inciso anterior, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcular la prima spread del CDS hecho sobre la deuda que aparece en rojo de HPE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJERCICIO 4. </t>
-  </si>
-  <si>
     <t>Calcular la prima de un CDS sobre los siguientes bono corporativos (Liverpool, Gmexico, Banorte, Apple, HPE)</t>
   </si>
   <si>
@@ -218,9 +202,6 @@
     <t>A) Calcula la prima spread justa de GMéxico a 5 años sobre la deuda que se señala en verde, asume severidad de la pérdida del 62%</t>
   </si>
   <si>
-    <t>A 3 años sobre la deuda en el screenshot, asumir un LGD del 57%</t>
-  </si>
-  <si>
     <t>c) Asume que el CDS se cierra sobre 2,000,000 bonos, si HOY sucede un evento de crédito, ¿Cuánto $ de la posición total tiene que pagar el PS?</t>
   </si>
   <si>
@@ -276,6 +257,87 @@
   </si>
   <si>
     <t>YTW</t>
+  </si>
+  <si>
+    <t>a) Calculo de la prima del CDS</t>
+  </si>
+  <si>
+    <t>Settle</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>Spread crediticio</t>
+  </si>
+  <si>
+    <t>rf 2026</t>
+  </si>
+  <si>
+    <t>Prob default</t>
+  </si>
+  <si>
+    <t>** Tomar la rf del bono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque estoy calculano el spread </t>
+  </si>
+  <si>
+    <t>del bono no del CDS</t>
+  </si>
+  <si>
+    <t>Prima Spread</t>
+  </si>
+  <si>
+    <t>Puntos base</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Desemboso del PB</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Matturity</t>
+  </si>
+  <si>
+    <t>rf 7yr</t>
+  </si>
+  <si>
+    <t>spread cre.</t>
+  </si>
+  <si>
+    <t>sube LGD -&gt; baja prima</t>
+  </si>
+  <si>
+    <t>sube RR -&gt; sube prima</t>
+  </si>
+  <si>
+    <t>sube spread -&gt; sube prima</t>
+  </si>
+  <si>
+    <t>sube prob -&gt; sube prima</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>rf 6yr</t>
+  </si>
+  <si>
+    <t>RR=1 -&gt; LGD=0</t>
+  </si>
+  <si>
+    <t>Prima = 0</t>
   </si>
 </sst>
 </file>
@@ -288,7 +350,7 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,27 +399,17 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Menlo"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -391,6 +443,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,7 +459,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,10 +470,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +486,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1448,6 +1515,116 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222738</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>103554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F5FCED-7DC2-EB47-9FD6-8B348AD30041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534769" y="1690077"/>
+          <a:ext cx="2567354" cy="1461477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Tasa de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> recuperación (Recovery Rate)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>- Deuda Senior: 40%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>- Deuda Junior o SUB: 20% </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Spread de Credito: YTW - rf </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>LGD = 1- Recovery Rate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Prob Default: spread de crédito/LGD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1487,8 +1664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396240" y="1412240"/>
-          <a:ext cx="7772400" cy="4073757"/>
+          <a:off x="391160" y="1423963"/>
+          <a:ext cx="7820855" cy="4112834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,121 +1869,6 @@
         <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>357482</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>188145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>246475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>108133</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA4F3E8-331C-1AC2-553A-0856BDA432B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="357482" y="1429923"/>
-          <a:ext cx="7772400" cy="5301025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9408</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>98303</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>153341</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>102536</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32532F0-60C8-7949-9731-EB54F6D8B31E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442149" y="6307192"/>
-          <a:ext cx="7594599" cy="211196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2150,7 +2212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2167,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -2208,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -2270,7 +2332,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -2285,7 +2347,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -2318,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D581A3-F763-2046-A5EC-831F641A0508}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2329,151 +2391,151 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>2.6352715089414992E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>C8*2</f>
         <v>5.2705430178829983E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17">
         <v>2.9411860671987786E-2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <f>C9*2</f>
         <v>5.8823721343975573E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="17">
         <v>2.7058052944875569E-2</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <f>C10*2</f>
         <v>5.4116105889751139E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="19">
         <f>MIN(C8:C10)</f>
         <v>2.6352715089414992E-2</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <f>MIN(D8:D10)</f>
         <v>5.2705430178829983E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
         <v>0.06</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>62</v>
+      <c r="B16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <f>$C$13/2*100</f>
         <v>3</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <f>C17/(1+$C$9)^B17</f>
         <v>2.9142854426037368</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <f>$C$13/2*100+102</f>
         <v>105</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <f>C18/(1+$C$9)^B18</f>
         <v>99.085695811340685</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="17">
+        <v>57</v>
+      </c>
+      <c r="D19" s="15">
         <f>SUM(D17:D18)</f>
         <v>101.99998125394443</v>
       </c>
@@ -2485,18 +2547,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD5C187-66F5-6B47-A36E-CEFFAD85D891}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -2526,7 +2594,7 @@
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -2544,52 +2612,151 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="20">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="20">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="24">
+        <f>Q22-Q23</f>
+        <v>1.0353000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="4">
+        <f>1-N21</f>
+        <v>0.6</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>3.9246999999999997E-2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="5">
+        <f>Q21/N22</f>
+        <v>1.7255000000000003E-2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="26">
+        <v>105.1713</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="10">
+        <f>N25/10000</f>
+        <v>1.051713E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="N28" s="27">
+        <f>N26*100*2000000</f>
+        <v>2103426</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" s="27">
+        <f>N30*2000000*100</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="32" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.2">
@@ -2612,56 +2779,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649588E-EF1C-F74E-B3CC-25914DE705E4}">
-  <dimension ref="B1:C15"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="20">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="20">
+        <v>47601</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11">
+        <v>0.62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12">
+        <f>1-L11</f>
+        <v>0.38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="22">
+        <f>0.0635</f>
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="22">
+        <v>4.0018999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="5">
+        <f>L14-L15</f>
+        <v>2.3481000000000002E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="22">
+        <f>L16/L11</f>
+        <v>3.7872580645161295E-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="25">
+        <v>52.325699999999998</v>
+      </c>
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="10">
+        <f>L19/10000</f>
+        <v>5.2325699999999998E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2671,75 +2932,130 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4DBC02-2647-A24A-869B-06EA7CC8A4C7}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD743797-2680-B842-890D-2F323F2261AE}">
-  <dimension ref="B1:B6"/>
-  <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>39</v>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="20">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="20">
+        <v>46871</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <f>1-N11</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="22">
+        <v>7.6799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="22">
+        <v>3.9029000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="5">
+        <f>N13-N14</f>
+        <v>3.7770999999999992E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="22">
+        <f>N15/N10</f>
+        <v>4.7213749999999985E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="25">
+        <v>136.13149999999999</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N19" s="10">
+        <f>N18/10000</f>
+        <v>1.3613149999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Riesgo crediticio/23.- CDS.xlsx
+++ b/Riesgo crediticio/23.- CDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo crediticio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCDB55-1A3F-974B-8F0D-44F4A137ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE1F71F-94ED-B144-A9FD-E385308B0F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="28280" windowHeight="18360" activeTab="4" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
   </bookViews>
   <sheets>
     <sheet name="Teoría" sheetId="1" r:id="rId1"/>
@@ -2549,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD5C187-66F5-6B47-A36E-CEFFAD85D891}">
   <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -2935,7 +2935,7 @@
   <dimension ref="B1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
